--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_AgencyGLAccountProfile_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_AgencyGLAccountProfile_Regression_001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA4143F-8E27-4C50-96EE-4D2D75A1F4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30228623-49DF-491F-A658-D6D9D022D64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>BusinessModule</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>TC_PM_COA_SEC_AgencyGLAccountProfile_EditProfile</t>
+  </si>
+  <si>
+    <t>LastProcDateVerify</t>
+  </si>
+  <si>
+    <t>Verify Last Proc date</t>
   </si>
 </sst>
 </file>
@@ -509,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="54.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,22 +732,22 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
         <v>1</v>
       </c>
     </row>
@@ -753,7 +759,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
@@ -762,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -770,10 +776,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -782,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -790,10 +796,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
@@ -810,58 +816,78 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
         <v>1</v>
       </c>
     </row>
